--- a/shiny_casen/casen_2006_mil.xlsx
+++ b/shiny_casen/casen_2006_mil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\shinycasen3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\castro_shiny\shiny_casen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -461,10 +461,14 @@
   <dimension ref="A1:AF1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1001"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/shiny_casen/casen_2006_mil.xlsx
+++ b/shiny_casen/casen_2006_mil.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:AF1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
